--- a/Phase-1-preparation/Training_plans/training_plans.xlsx
+++ b/Phase-1-preparation/Training_plans/training_plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelkonrath/Documents/Epitech/ProjetMSC1/Gotham/gotham_2020_20/Phase-1-preparation/Training_plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB059EA-B157-8C48-8F07-E751E7F3412A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E926EA85-6648-CC42-B26E-A291839CFF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Training plans</t>
   </si>
@@ -122,16 +122,34 @@
     <t>All the HR department</t>
   </si>
   <si>
-    <t>The HR referrer for the solution</t>
-  </si>
-  <si>
-    <t>The planer referrer for the solution</t>
-  </si>
-  <si>
     <t xml:space="preserve">All IT department </t>
   </si>
   <si>
     <t>All planer department</t>
+  </si>
+  <si>
+    <t>The HR referrer for the time manger app</t>
+  </si>
+  <si>
+    <t>The planer referrer for the time manager app</t>
+  </si>
+  <si>
+    <t>The IT egenieer referrer for the time manager app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All employees </t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>1d</t>
   </si>
 </sst>
 </file>
@@ -216,10 +234,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -550,7 +571,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,38 +584,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -603,84 +624,102 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>

--- a/Phase-1-preparation/Training_plans/training_plans.xlsx
+++ b/Phase-1-preparation/Training_plans/training_plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelkonrath/Documents/Epitech/ProjetMSC1/Gotham/gotham_2020_20/Phase-1-preparation/Training_plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E926EA85-6648-CC42-B26E-A291839CFF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91389F0-791C-AB4A-B61B-2239CDF93F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
   </bookViews>
@@ -66,15 +66,6 @@
     <t>HR department</t>
   </si>
   <si>
-    <t>HR referrer</t>
-  </si>
-  <si>
-    <t>Planning manager referrer</t>
-  </si>
-  <si>
-    <t>IT referrer</t>
-  </si>
-  <si>
     <t>Get advance data. Specific requests</t>
   </si>
   <si>
@@ -128,15 +119,6 @@
     <t>All planer department</t>
   </si>
   <si>
-    <t>The HR referrer for the time manger app</t>
-  </si>
-  <si>
-    <t>The planer referrer for the time manager app</t>
-  </si>
-  <si>
-    <t>The IT egenieer referrer for the time manager app</t>
-  </si>
-  <si>
     <t xml:space="preserve">All employees </t>
   </si>
   <si>
@@ -150,6 +132,24 @@
   </si>
   <si>
     <t>1d</t>
+  </si>
+  <si>
+    <t>HR referent</t>
+  </si>
+  <si>
+    <t>Planning manager referent</t>
+  </si>
+  <si>
+    <t>IT referent</t>
+  </si>
+  <si>
+    <t>The HR referent for the time manger app</t>
+  </si>
+  <si>
+    <t>The planer referent for the time manager app</t>
+  </si>
+  <si>
+    <t>The IT egenieer referent for the time manager app</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,10 +608,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -625,25 +625,25 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -652,28 +652,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -682,28 +682,28 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -712,13 +712,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">

--- a/Phase-1-preparation/Training_plans/training_plans.xlsx
+++ b/Phase-1-preparation/Training_plans/training_plans.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelkonrath/Documents/Epitech/ProjetMSC1/Gotham/gotham_2020_20/Phase-1-preparation/Training_plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91389F0-791C-AB4A-B61B-2239CDF93F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD312A9-37BF-F044-8ABF-36C7A510615F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
+    <workbookView xWindow="7740" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Training plans" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Training plans</t>
   </si>
@@ -150,6 +150,120 @@
   </si>
   <si>
     <t>The IT egenieer referent for the time manager app</t>
+  </si>
+  <si>
+    <t>2 - Trucks with GPS</t>
+  </si>
+  <si>
+    <t>Team managers</t>
+  </si>
+  <si>
+    <t>get truck location, how to identify a truck</t>
+  </si>
+  <si>
+    <t>Team manager referent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advance gps settings, </t>
+  </si>
+  <si>
+    <t>All team manager department</t>
+  </si>
+  <si>
+    <t>Team manager referent 1</t>
+  </si>
+  <si>
+    <t>Truck's driver</t>
+  </si>
+  <si>
+    <t>Check gps on, how to turn on off, how to repport a malfunction to the maintenance team</t>
+  </si>
+  <si>
+    <t>All truck's driver</t>
+  </si>
+  <si>
+    <t>Mainteance department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to install a gps on truck </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT department </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check truck's location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All It department </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All maintenance department </t>
+  </si>
+  <si>
+    <t>3 - Employees equip with eletronic device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic presentation </t>
+  </si>
+  <si>
+    <t>IT new recrue</t>
+  </si>
+  <si>
+    <t>Basic entreprise onboarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How execute preventive and currative maintenance plan </t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>Technical assistance posture</t>
+  </si>
+  <si>
+    <t>4 - Deploy drones to monitor the street cleenliness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drone pilot </t>
+  </si>
+  <si>
+    <t>how to define a good flight plan</t>
+  </si>
+  <si>
+    <t>pilots + team manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report anomaly procedure </t>
+  </si>
+  <si>
+    <t>maintenance Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolve basic failure on drones </t>
+  </si>
+  <si>
+    <t>maintenance Department Referent</t>
+  </si>
+  <si>
+    <t>Definition of a maintenance procedure with supplier / after sales service for serious breakdowns</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>2 pilots</t>
+  </si>
+  <si>
+    <t>2 pilots and 1 team manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all maintenance department </t>
+  </si>
+  <si>
+    <t>Maintenance departmenet referent</t>
   </si>
 </sst>
 </file>
@@ -196,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +335,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3A8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -234,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -243,16 +369,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,6 +401,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF3A8FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -568,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADFC04F-6AAC-444C-AB05-143CAA0D0B63}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,13 +730,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -598,19 +744,19 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -627,13 +773,13 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -721,22 +867,226 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Phase-1-preparation/Training_plans/training_plans.xlsx
+++ b/Phase-1-preparation/Training_plans/training_plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelkonrath/Documents/Epitech/ProjetMSC1/Gotham/gotham_2020_20/Phase-1-preparation/Training_plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD312A9-37BF-F044-8ABF-36C7A510615F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F6C8B-0B55-E845-BEBB-8F3DFFF0ACA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
   </bookViews>
   <sheets>
     <sheet name="Training plans" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>Training plans</t>
   </si>
@@ -155,6 +155,9 @@
     <t>2 - Trucks with GPS</t>
   </si>
   <si>
+    <t xml:space="preserve">Team manager </t>
+  </si>
+  <si>
     <t>Team managers</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
     <t>Team manager referent 1</t>
   </si>
   <si>
+    <t>truck's driver</t>
+  </si>
+  <si>
     <t>Truck's driver</t>
   </si>
   <si>
@@ -264,6 +270,18 @@
   </si>
   <si>
     <t>Maintenance departmenet referent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Change citizen's trashes </t>
+  </si>
+  <si>
+    <t>Get information from trashes sensors</t>
+  </si>
+  <si>
+    <t>Adapte garbage collector's route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get notification of changing route </t>
   </si>
 </sst>
 </file>
@@ -360,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -394,6 +412,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,15 +738,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADFC04F-6AAC-444C-AB05-143CAA0D0B63}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="45.1640625" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" customWidth="1"/>
@@ -872,87 +896,87 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
@@ -964,124 +988,168 @@
     <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:A14"/>

--- a/Phase-1-preparation/Training_plans/training_plans.xlsx
+++ b/Phase-1-preparation/Training_plans/training_plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelkonrath/Documents/Epitech/ProjetMSC1/Gotham/gotham_2020_20/Phase-1-preparation/Training_plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F6C8B-0B55-E845-BEBB-8F3DFFF0ACA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3C9491-3FB8-F345-BC76-2685559D64C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
+    <workbookView xWindow="2640" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
   </bookViews>
   <sheets>
     <sheet name="Training plans" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>Training plans</t>
   </si>
@@ -281,7 +281,46 @@
     <t>Adapte garbage collector's route</t>
   </si>
   <si>
-    <t xml:space="preserve">Get notification of changing route </t>
+    <t>Change sensor on bine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All maintenance employee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get notification of changing route / how notify an anomaly on trash sensor </t>
+  </si>
+  <si>
+    <t>Maintenance Department</t>
+  </si>
+  <si>
+    <t>6 - public application for reporting incident and ask sanitation service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to get incident alert, and learn what to do when it occured </t>
+  </si>
+  <si>
+    <t xml:space="preserve">global architecture anderstanding, advanced frequent failure resolution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT department referent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotline </t>
+  </si>
+  <si>
+    <t>7 - Monthle reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement Chief </t>
+  </si>
+  <si>
+    <t>How to get performance information with all new digital tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief department </t>
   </si>
 </sst>
 </file>
@@ -328,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +404,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC9C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BFFDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF86BFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -378,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -392,32 +449,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,6 +502,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF86BFFF"/>
+      <color rgb="FF8BFFDD"/>
+      <color rgb="FFFFC9C1"/>
       <color rgb="FFF3A8FF"/>
     </mruColors>
   </colors>
@@ -738,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADFC04F-6AAC-444C-AB05-143CAA0D0B63}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,13 +832,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -785,7 +863,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -802,7 +880,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
@@ -817,7 +895,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,7 +910,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
@@ -847,7 +925,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,7 +940,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -877,7 +955,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -892,7 +970,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -909,7 +987,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -924,7 +1002,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
@@ -939,7 +1017,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
@@ -954,7 +1032,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
@@ -969,7 +1047,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -986,8 +1064,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1001,8 +1079,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
@@ -1014,8 +1092,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1026,25 +1104,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1059,7 +1137,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1074,7 +1152,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1089,7 +1167,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1104,10 +1182,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1121,7 +1199,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>74</v>
       </c>
@@ -1132,12 +1211,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>22</v>
@@ -1146,10 +1226,93 @@
         <v>43</v>
       </c>
     </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:A14"/>

--- a/Phase-1-preparation/Training_plans/training_plans.xlsx
+++ b/Phase-1-preparation/Training_plans/training_plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelkonrath/Documents/Epitech/ProjetMSC1/Gotham/gotham_2020_20/Phase-1-preparation/Training_plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3C9491-3FB8-F345-BC76-2685559D64C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB00637-1982-7F42-89FB-30DA44D73170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4BC05C21-79CF-024B-B5FB-93BFA457E75A}"/>
   </bookViews>
   <sheets>
     <sheet name="Training plans" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADFC04F-6AAC-444C-AB05-143CAA0D0B63}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:A31"/>
     </sheetView>
   </sheetViews>
